--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/80.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/80.xlsx
@@ -479,13 +479,13 @@
         <v>-14.26658605483745</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69337672127001</v>
+        <v>-10.69609992026109</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.068841683293561</v>
+        <v>-3.959717339107775</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.726474421741219</v>
+        <v>-6.85747600397553</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.22177497334173</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05029908134115</v>
+        <v>-11.05514323339258</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.122048802042336</v>
+        <v>-3.990759189145507</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.742473215813809</v>
+        <v>-6.852788959558192</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.91153337663021</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.8860069563342</v>
+        <v>-11.88815409400025</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.865989543063858</v>
+        <v>-3.751955585312424</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.575520169976118</v>
+        <v>-6.687289159335934</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.43904301526537</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73193991984665</v>
+        <v>-12.74666876054359</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.970282827501047</v>
+        <v>-3.827013757504039</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.911154445626607</v>
+        <v>-7.037612998774839</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.824799308682435</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.43939559620216</v>
+        <v>-13.4713800920445</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.722694288461166</v>
+        <v>-3.584688324206531</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.481595989389575</v>
+        <v>-6.590065718433276</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.110852328723422</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.12937304826397</v>
+        <v>-14.16337375874393</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.784987465382098</v>
+        <v>-3.629843676707644</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.654584586837301</v>
+        <v>-6.760815532095067</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.318722428518554</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.73821749961559</v>
+        <v>-14.78859668095056</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.600255072285344</v>
+        <v>-3.46142429295168</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.358881834854077</v>
+        <v>-6.428834008937419</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.500201039348653</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.64986073109066</v>
+        <v>-15.70279291147976</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.447048944431465</v>
+        <v>-3.301724382888306</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.165862014058509</v>
+        <v>-6.190161328132753</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.667423103882057</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.30132062819211</v>
+        <v>-16.35615119249326</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.441026485124271</v>
+        <v>-3.287388311276616</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.727256776557844</v>
+        <v>-5.760275564324677</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1322845127662325</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.82234191208144</v>
+        <v>-16.90889512616809</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.288959387617623</v>
+        <v>-3.145598671500722</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.492472509697171</v>
+        <v>-5.531173356897312</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.872889486069194</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.45141397132354</v>
+        <v>-17.52624957436684</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.398895454579597</v>
+        <v>-3.281248021243846</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.894821977275218</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>3.534367114740925</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.34972923850573</v>
+        <v>-18.41635596766728</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.178565090056189</v>
+        <v>-3.057958796278208</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.251400754118589</v>
+        <v>-4.287470048447545</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.070211964166658</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.0902429795366</v>
+        <v>-19.13270131765232</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.062331625427344</v>
+        <v>-2.939133055686702</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.675339429082642</v>
+        <v>-3.746273525879114</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.472074502515693</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.84053667079024</v>
+        <v>-19.91047575257074</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.991502267053606</v>
+        <v>-2.863079868479116</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.079129049973279</v>
+        <v>-3.149748931501549</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.716178180661442</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.68760866464991</v>
+        <v>-20.78377162902239</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.992693666612204</v>
+        <v>-2.844082937055771</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.456013988524169</v>
+        <v>-2.566905793593588</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>8.788965131851842</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.39827195520165</v>
+        <v>-21.50297110102693</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.913432865208394</v>
+        <v>-2.76488759716617</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.036261667115589</v>
+        <v>-2.144456457799613</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>9.693124163231948</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.30127426680118</v>
+        <v>-22.41570099363786</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.821878391436204</v>
+        <v>-2.665844326168513</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.819924454958908</v>
+        <v>-1.905417192515379</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>10.41228006182438</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.14255946280481</v>
+        <v>-23.26142448030484</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.828882773456527</v>
+        <v>-2.686647995384015</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.33344066596605</v>
+        <v>-1.453732744475829</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>10.95290442017396</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.94626974965269</v>
+        <v>-24.05700444708801</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.603708256881681</v>
+        <v>-2.466880599882801</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.107297318980916</v>
+        <v>-1.204743329031883</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>11.31337420456423</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.3914473231799</v>
+        <v>-24.51395200086993</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.440970932559026</v>
+        <v>-2.309275458274103</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7164397099440259</v>
+        <v>-0.8137286123608924</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>11.49539358629597</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.05441535447923</v>
+        <v>-25.17551915576519</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.222761521095977</v>
+        <v>-2.109683301451989</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5899942490986356</v>
+        <v>-0.638776169486907</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>11.51219538680985</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.62560634285805</v>
+        <v>-25.74267771486877</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.216516492640474</v>
+        <v>-2.105480672239795</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.201794377538616</v>
+        <v>-0.2811468250623177</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>11.3745214724956</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.06443414950703</v>
+        <v>-26.18041886038188</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.154498254079217</v>
+        <v>-2.059317212419869</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2503406364757362</v>
+        <v>-0.315160627845122</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>11.10746342497324</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.33992238590263</v>
+        <v>-26.45785784990089</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.804344614577254</v>
+        <v>-1.716888031594523</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2353106728134347</v>
+        <v>-0.2922490978721013</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>10.7318544439227</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.254193986895</v>
+        <v>-26.38003720180967</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.696974638972258</v>
+        <v>-1.623736296875643</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.395023675179651</v>
+        <v>-0.4493698242756559</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>10.27634461341079</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.16026980630846</v>
+        <v>-26.32151460810716</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.768877566179018</v>
+        <v>-1.701700960298121</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3649244709465228</v>
+        <v>-0.39258850685109</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>9.767035732222595</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.33746103296838</v>
+        <v>-26.47194516775859</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.486398040065936</v>
+        <v>-1.418710834374212</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7019858076067604</v>
+        <v>-0.7241117994092775</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>9.228471696218705</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.24153373004705</v>
+        <v>-26.40717754560057</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.390261260299142</v>
+        <v>-1.33768257208677</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7788638098933759</v>
+        <v>-0.7921524972777279</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.687704109283878</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.06023152029483</v>
+        <v>-26.21051806461501</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.469836276971153</v>
+        <v>-1.418174049957702</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9233766486603482</v>
+        <v>-0.9289408773680818</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>8.157705326589722</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.72548752123758</v>
+        <v>-25.86798414536693</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.381175202126984</v>
+        <v>-1.332838420035331</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.410109191407198</v>
+        <v>-1.407582376958745</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>7.657586878255518</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.73545076370013</v>
+        <v>-25.89672175010451</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.210019527077099</v>
+        <v>-1.16952503438764</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.696058177773337</v>
+        <v>-1.709726541940099</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>7.195551596869865</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.38782393864662</v>
+        <v>-25.54079440504935</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.177419693001201</v>
+        <v>-1.145395920250339</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.194167931689647</v>
+        <v>-2.215770231378495</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.773263279767484</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.8500183225142</v>
+        <v>-24.97658161408516</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.194884824992063</v>
+        <v>-1.169891618867208</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.303135168241333</v>
+        <v>-2.312496164773167</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.395371784462072</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.42958520135785</v>
+        <v>-24.56909678043928</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.361327271018927</v>
+        <v>-1.337551649058352</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.52171116418395</v>
+        <v>-2.513868874781756</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.051221803170843</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.78473691719147</v>
+        <v>-23.91107763961413</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.361039240356409</v>
+        <v>-1.338088433474863</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.723437366369265</v>
+        <v>-2.685639888065202</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.735728651093027</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.02868261268748</v>
+        <v>-23.14665735359427</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.338311002623173</v>
+        <v>-1.322678793030152</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.844541167655231</v>
+        <v>-2.83656795522462</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.43956074094243</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.6518861369026</v>
+        <v>-22.75434649894195</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.416249481439968</v>
+        <v>-1.396951427051264</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.150298808220902</v>
+        <v>-3.153977745319427</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.148193641972867</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.99926102484824</v>
+        <v>-22.13940103446608</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.333545404388784</v>
+        <v>-1.298575863498534</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.377424077919166</v>
+        <v>-3.385358013441252</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.860212323931459</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.51165129781099</v>
+        <v>-21.65058681556739</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.503012172372086</v>
+        <v>-1.46450770971457</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.608490130772789</v>
+        <v>-3.616397881689192</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.565421097644103</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.08371628712634</v>
+        <v>-21.15098453912712</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.422651617529572</v>
+        <v>-1.366210699978891</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.613713959606638</v>
+        <v>-3.61918654219448</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.261792086544576</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.23689304702065</v>
+        <v>-20.35763026382705</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.151077979683648</v>
+        <v>-1.088758618157032</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.71946048965926</v>
+        <v>-3.737658790609259</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.947175948538828</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.43282926799604</v>
+        <v>-19.51140926965208</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.158108546309655</v>
+        <v>-1.095998661628506</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.860818083441376</v>
+        <v>-3.873844924768893</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.612384937736488</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.00564051857337</v>
+        <v>-19.08782090351088</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.181700876030445</v>
+        <v>-1.11225930175793</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.083753816230288</v>
+        <v>-4.105526315856078</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.259903562571824</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52701211128554</v>
+        <v>-18.5850764743886</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.169813065050158</v>
+        <v>-1.104037335573326</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.200563342184167</v>
+        <v>-4.212752276129814</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>2.880669389625777</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08337942949365</v>
+        <v>-18.11308586464153</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.133141524790483</v>
+        <v>-1.068125148878472</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.347367333948442</v>
+        <v>-4.333790615901572</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>2.469938467923209</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.313565114703</v>
+        <v>-17.36245177351401</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.229723442853897</v>
+        <v>-1.15404993242872</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.646028946373897</v>
+        <v>-4.651907390349832</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>2.025016678132571</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.46409722942329</v>
+        <v>-16.52335299208494</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.153644071040626</v>
+        <v>-1.083168204843615</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.605010761570769</v>
+        <v>-4.590452120810769</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.535095191378954</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.84923031876447</v>
+        <v>-15.86615866633882</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.110413287057247</v>
+        <v>-1.013320769183006</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.828208340416515</v>
+        <v>-4.83044712420245</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.004774951652411</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.95420121959555</v>
+        <v>-15.00092764843767</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.063189350707141</v>
+        <v>-0.9796342739712451</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954090832239711</v>
+        <v>-4.949011018737122</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.429133183034888</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.16519358883893</v>
+        <v>-14.20046425269454</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.062888227741781</v>
+        <v>-0.9826455036248422</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.134384934673121</v>
+        <v>-5.136230949373804</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1905813575294772</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.43243049109036</v>
+        <v>-13.51099740044356</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.011265277636855</v>
+        <v>-0.9249477250013554</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.030130927144456</v>
+        <v>-5.041979461216219</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.84367870656402</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.73772671770269</v>
+        <v>-12.80604235393082</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.011160539214121</v>
+        <v>-0.9138323598887299</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.111879266088193</v>
+        <v>-5.122209093030316</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.529299475024566</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.37674574375062</v>
+        <v>-12.434535168494</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.207558174142854</v>
+        <v>-1.111735609644261</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.280351019055525</v>
+        <v>-5.29290653748074</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.231637109188299</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.70738866866454</v>
+        <v>-11.74483265479187</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.298300925138858</v>
+        <v>-1.198891069661632</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.762566717321979</v>
+        <v>-5.768484438206439</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.942018417235765</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.28335516422671</v>
+        <v>-11.32233094978653</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.314888872839325</v>
+        <v>-1.208788850609976</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.896291498547369</v>
+        <v>-5.902183034826146</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.651597857762003</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.51165555782685</v>
+        <v>-10.54445177644538</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.304035353783534</v>
+        <v>-1.197123608777999</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.349743407470552</v>
+        <v>-6.362665510375336</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.340336789162281</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.02835319842453</v>
+        <v>-10.09067255995115</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.509820169849784</v>
+        <v>-1.391334829132163</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.187857082832608</v>
+        <v>-6.215874610913903</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.003165270713828</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.469809374590817</v>
+        <v>-9.508772067847794</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.497447943664353</v>
+        <v>-1.383125955250401</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.410308400416376</v>
+        <v>-6.44394252641677</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.625576773002635</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.177235682986764</v>
+        <v>-9.225795034226726</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.573239284815105</v>
+        <v>-1.466537016655038</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.287266938309835</v>
+        <v>-6.333207828981451</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.197679966837624</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.532649244877222</v>
+        <v>-8.610194954608765</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.663222682246288</v>
+        <v>-1.539578974209027</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.710960042873774</v>
+        <v>-6.724955714611579</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.714070227542656</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.957465104131671</v>
+        <v>-8.039789504400444</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.573841530745824</v>
+        <v>-1.463578156212808</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.572338740385578</v>
+        <v>-6.597541423355901</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.159931586413915</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.498147843535396</v>
+        <v>-7.573795169354889</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.5721395313764</v>
+        <v>-1.442316256397844</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.633885656044533</v>
+        <v>-6.668658812392157</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.533295096425269</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.06902143329214</v>
+        <v>-7.17263391798156</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.711638018154991</v>
+        <v>-1.587627725638162</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.813158558856288</v>
+        <v>-6.840141795013085</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.826390616569279</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.64099477648759</v>
+        <v>-6.741308000860895</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.59337524658568</v>
+        <v>-1.476225320757915</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.004594211008007</v>
+        <v>-7.000653427852646</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.035235273653532</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.405451156062096</v>
+        <v>-6.494295523146049</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.748859435134019</v>
+        <v>-1.638347306847009</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.030726447480092</v>
+        <v>-7.039472105778365</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.161770502518786</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.263923362343037</v>
+        <v>-6.367758416180767</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.739393700179451</v>
+        <v>-1.629523094731685</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.080215352221816</v>
+        <v>-7.100966652225952</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.205190091021038</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.988055449165027</v>
+        <v>-6.094783901930779</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.657488253601612</v>
+        <v>-1.574928191881688</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.04520653442304</v>
+        <v>-7.04974956350912</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.173787000546618</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.888671778293485</v>
+        <v>-6.004289904688767</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.944366793469514</v>
+        <v>-1.849617797803942</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.084561996765269</v>
+        <v>-7.078906121937643</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.071501590571593</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.779416511079281</v>
+        <v>-5.911491662146613</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.888947075540488</v>
+        <v>-1.801425031043549</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.820974663652798</v>
+        <v>-6.822519555388122</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.907791787547962</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.512857225221738</v>
+        <v>-5.65524911092835</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.90057304046394</v>
+        <v>-1.8183533786179</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.732431419534205</v>
+        <v>-6.722350346346076</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.691379267654412</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.592484611105116</v>
+        <v>-5.75642642728921</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.98143110281444</v>
+        <v>-1.900363563618473</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.555043808331658</v>
+        <v>-6.531150355645508</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.429688427046838</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.663916215409573</v>
+        <v>-5.828159154559027</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.068337809077818</v>
+        <v>-1.98749283903016</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.386689886089902</v>
+        <v>-6.36740492400404</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.134425272015925</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.869792677595716</v>
+        <v>-6.025381604566788</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.929258275990162</v>
+        <v>-1.848295475216928</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.298356118816777</v>
+        <v>-6.250543028838793</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.810792107904565</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.015405269801393</v>
+        <v>-6.185120791538688</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.177488337869288</v>
+        <v>-2.118101652179219</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.151997265349121</v>
+        <v>-6.110101896255598</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.470158379445164</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.492920831347668</v>
+        <v>-6.663775383432193</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.168781956479541</v>
+        <v>-2.091524277410515</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.923916257543412</v>
+        <v>-5.867802647563773</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.120433731921041</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.968760578130202</v>
+        <v>-7.115355093049009</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.217904276741697</v>
+        <v>-2.14594898032357</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.973928854398805</v>
+        <v>-5.927333348585102</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.766704174686313</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.452625906554714</v>
+        <v>-7.601917435858916</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.173560647016771</v>
+        <v>-2.092178892552601</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.604896114199073</v>
+        <v>-5.554647855892528</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.418802954057274</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.855777187959985</v>
+        <v>-7.993351106220842</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.195594992699395</v>
+        <v>-2.136902199059938</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.443742958520266</v>
+        <v>-5.393612530939297</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.077481841216858</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.227886619327522</v>
+        <v>-8.376785379546474</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.465152415907693</v>
+        <v>-2.399415963339387</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.047242566958592</v>
+        <v>-5.001105291744349</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.747904319387762</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.142043572948204</v>
+        <v>-9.273058247485357</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.393170934883884</v>
+        <v>-2.322354668812987</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.049442073836002</v>
+        <v>-4.988811619375968</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.431984222215766</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.887034881550942</v>
+        <v>-9.999393024538636</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.483848224365678</v>
+        <v>-2.411526343467984</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.879163583076513</v>
+        <v>-4.819318666786983</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.124643652214126</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.64668956933641</v>
+        <v>-10.74836439320526</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.532473037119849</v>
+        <v>-2.493025928657728</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.555652779857462</v>
+        <v>-4.491592142052896</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.82906260941059</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.78297053296982</v>
+        <v>-11.89142716971068</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.621409050323694</v>
+        <v>-2.567494947221466</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.452524710373186</v>
+        <v>-4.383541366700131</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.538629056386412</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.59990404568784</v>
+        <v>-12.70250842305845</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.764036597481458</v>
+        <v>-2.709808279111029</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.092604212951295</v>
+        <v>-4.014600272620291</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.251180482688982</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.62724395737525</v>
+        <v>-13.73931406970042</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.858707039329979</v>
+        <v>-2.807503042915989</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.763633919447243</v>
+        <v>-3.708135647701166</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.965064719282372</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.62639614104441</v>
+        <v>-14.73486587008811</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.890403504509798</v>
+        <v>-2.843690167970519</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.320682037403125</v>
+        <v>-3.252890093288668</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.673648451022988</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.00357547696558</v>
+        <v>-16.08694726146169</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.806442566385809</v>
+        <v>-2.741557113502214</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.069401468961876</v>
+        <v>-3.00252598604634</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.380968806745862</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.41899742948743</v>
+        <v>-17.51819780811918</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.034850881762562</v>
+        <v>-2.989067098725045</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.7936382942066</v>
+        <v>-2.740496636972034</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.086027982163938</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.89142326858215</v>
+        <v>-18.98482375705502</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.236249776376834</v>
+        <v>-3.183108119142267</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.661497681625059</v>
+        <v>-2.620361666096356</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.791637725983009</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.52919180026503</v>
+        <v>-20.60150058885988</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.454079511057472</v>
+        <v>-3.385109259687259</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.712780231856101</v>
+        <v>-2.689462840494986</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.504538466260931</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.00210205456489</v>
+        <v>-22.08169016353975</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.449471020457184</v>
+        <v>-3.412982772437294</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.611511269375349</v>
+        <v>-2.572731868358157</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.226366986853013</v>
       </c>
       <c r="E93" t="n">
-        <v>-23.99303545540333</v>
+        <v>-24.07318653340038</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.683901795141131</v>
+        <v>-3.604444609194696</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.578819789179559</v>
+        <v>-2.547660108416251</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.9645650500333968</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.16688141924353</v>
+        <v>-26.23670267029846</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.484964253461104</v>
+        <v>-3.413192249282762</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.740706113817502</v>
+        <v>-2.697855006616533</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.7213636896669092</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.33979782958196</v>
+        <v>-28.4139526328775</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.995603341196946</v>
+        <v>-3.908762096447777</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.949750913291342</v>
+        <v>-2.92948402849235</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4981039786700341</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.37358233762138</v>
+        <v>-30.46813494874432</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.976737332802018</v>
+        <v>-3.889817534235799</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.283512989635465</v>
+        <v>-3.264411319789386</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2978675982230655</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.6339422386397</v>
+        <v>-32.74125984503333</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.122781971001473</v>
+        <v>-4.052777427706763</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.367761958421972</v>
+        <v>-3.345138459111469</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.121133493060127</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.1430820782565</v>
+        <v>-35.23529116717078</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.409568864749482</v>
+        <v>-4.322046820252543</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784830357747998</v>
+        <v>-3.77680477610602</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03258605038085485</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.54648848012352</v>
+        <v>-37.63334281717553</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.256192536958661</v>
+        <v>-4.187889993033377</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.186515301234995</v>
+        <v>-4.157738419588881</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1577428509344744</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.17179632285496</v>
+        <v>-40.25186884703496</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.379417291304987</v>
+        <v>-4.305629072489019</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.437350731379625</v>
+        <v>-4.407605019323223</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.2640954146981979</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.61484621772672</v>
+        <v>-42.68855588272564</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.534652726099333</v>
+        <v>-4.46068121504358</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.95415629375392</v>
+        <v>-4.90918423349259</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.3360726455951992</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.97650126583148</v>
+        <v>-45.05975521960202</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.621166663277459</v>
+        <v>-4.55169890439926</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.14758197593758</v>
+        <v>-5.127118706595962</v>
       </c>
     </row>
   </sheetData>
